--- a/jyx2/excel/地图.xlsx
+++ b/jyx2/excel/地图.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
   <si>
     <t>Key</t>
   </si>
@@ -207,9 +207,6 @@
     <t>无量山洞</t>
   </si>
   <si>
-    <t>POINTLIGHT</t>
-  </si>
-  <si>
     <t>69_baituoshan</t>
   </si>
   <si>
@@ -262,321 +259,6 @@
   </si>
   <si>
     <t>昆仑山洞</t>
-  </si>
-  <si>
-    <t>Leave2,POINTLIGHT</t>
-  </si>
-  <si>
-    <t>08_dalunsi</t>
-  </si>
-  <si>
-    <t>大伦寺</t>
-  </si>
-  <si>
-    <t>15_shamofeixu</t>
-  </si>
-  <si>
-    <t>沙漠废墟</t>
-  </si>
-  <si>
-    <t>09_chengkunju</t>
-  </si>
-  <si>
-    <t>成昆居</t>
-  </si>
-  <si>
-    <t>62_pomiao</t>
-  </si>
-  <si>
-    <t>破庙</t>
-  </si>
-  <si>
-    <t>03_youjiankezhan</t>
-  </si>
-  <si>
-    <t>有间客栈</t>
-  </si>
-  <si>
-    <t>06_beichouju</t>
-  </si>
-  <si>
-    <t>北丑居</t>
-  </si>
-  <si>
-    <t>72_binghuodao</t>
-  </si>
-  <si>
-    <t>冰火岛</t>
-  </si>
-  <si>
-    <t>71_shenlongjiao</t>
-  </si>
-  <si>
-    <t>神龙教</t>
-  </si>
-  <si>
-    <t>73_lingshedao</t>
-  </si>
-  <si>
-    <t>灵蛇岛</t>
-  </si>
-  <si>
-    <t>78_bonidao</t>
-  </si>
-  <si>
-    <t>渤泥岛</t>
-  </si>
-  <si>
-    <t>75_taohuadao</t>
-  </si>
-  <si>
-    <t>桃花岛</t>
-  </si>
-  <si>
-    <t>77_wanedao</t>
-  </si>
-  <si>
-    <t>万鳄岛</t>
-  </si>
-  <si>
-    <t>76_pilitang</t>
-  </si>
-  <si>
-    <t>霹雳堂</t>
-  </si>
-  <si>
-    <t>74_xiakedao</t>
-  </si>
-  <si>
-    <t>侠客岛</t>
-  </si>
-  <si>
-    <t>29_taishanpai</t>
-  </si>
-  <si>
-    <t>泰山派</t>
-  </si>
-  <si>
-    <t>30_pingyizhiju</t>
-  </si>
-  <si>
-    <t>平一指居</t>
-  </si>
-  <si>
-    <t>24_miaorenfengju</t>
-  </si>
-  <si>
-    <t>苗人凤居</t>
-  </si>
-  <si>
-    <t>32_haibianxiaowu</t>
-  </si>
-  <si>
-    <t>海边小屋</t>
-  </si>
-  <si>
-    <t>44_hudiegu</t>
-  </si>
-  <si>
-    <t>蝴蝶谷</t>
-  </si>
-  <si>
-    <t>51_gaibang</t>
-  </si>
-  <si>
-    <t>丐帮</t>
-  </si>
-  <si>
-    <t>40_yuelaikezhan</t>
-  </si>
-  <si>
-    <t>悦来客栈</t>
-  </si>
-  <si>
-    <t>28_shaolinsi</t>
-  </si>
-  <si>
-    <t>少林寺</t>
-  </si>
-  <si>
-    <t>27_songshanpai</t>
-  </si>
-  <si>
-    <t>嵩山派</t>
-  </si>
-  <si>
-    <t>43_wudangpai</t>
-  </si>
-  <si>
-    <t>武当派</t>
-  </si>
-  <si>
-    <t>36_qingchengpai</t>
-  </si>
-  <si>
-    <t>青城派</t>
-  </si>
-  <si>
-    <t>38_motianya</t>
-  </si>
-  <si>
-    <t>摩天崖</t>
-  </si>
-  <si>
-    <t>34_kongtongpai</t>
-  </si>
-  <si>
-    <t>崆峒派</t>
-  </si>
-  <si>
-    <t>20_baihuagu</t>
-  </si>
-  <si>
-    <t>百花谷</t>
-  </si>
-  <si>
-    <t>22_jueqinggu</t>
-  </si>
-  <si>
-    <t>绝情谷</t>
-  </si>
-  <si>
-    <t>80_jueqinggudi</t>
-  </si>
-  <si>
-    <t>绝情谷底</t>
-  </si>
-  <si>
-    <t>46_jinsheshandong</t>
-  </si>
-  <si>
-    <t>金蛇山洞</t>
-  </si>
-  <si>
-    <t>57_huashanpai</t>
-  </si>
-  <si>
-    <t>华山派</t>
-  </si>
-  <si>
-    <t>81_siguoya</t>
-  </si>
-  <si>
-    <t>思过崖</t>
-  </si>
-  <si>
-    <t>25_wudaodahui</t>
-  </si>
-  <si>
-    <t>武道大会</t>
-  </si>
-  <si>
-    <t>31_hengshanpai</t>
-  </si>
-  <si>
-    <t>恒山派</t>
-  </si>
-  <si>
-    <t>19_chongyanggong</t>
-  </si>
-  <si>
-    <t>重阳宫</t>
-  </si>
-  <si>
-    <t>18_gumu</t>
-  </si>
-  <si>
-    <t>古墓派</t>
-  </si>
-  <si>
-    <t>26_heimuya</t>
-  </si>
-  <si>
-    <t>黑木崖</t>
-  </si>
-  <si>
-    <t>23_hongqigongju</t>
-  </si>
-  <si>
-    <t>洪七公居</t>
-  </si>
-  <si>
-    <t>53_leigushan</t>
-  </si>
-  <si>
-    <t>擂鼓山</t>
-  </si>
-  <si>
-    <t>54_xuemuhuaju</t>
-  </si>
-  <si>
-    <t>薛慕华居</t>
-  </si>
-  <si>
-    <t>39_lingxiaocheng</t>
-  </si>
-  <si>
-    <t>雪山派</t>
-  </si>
-  <si>
-    <t>02_yunheya</t>
-  </si>
-  <si>
-    <t>云鹤崖</t>
-  </si>
-  <si>
-    <t>05_shandong</t>
-  </si>
-  <si>
-    <t>闯王山洞</t>
-  </si>
-  <si>
-    <t>07_shandong</t>
-  </si>
-  <si>
-    <t>神雕山洞</t>
-  </si>
-  <si>
-    <t>10_Shandong</t>
-  </si>
-  <si>
-    <t>蜘蛛山洞</t>
-  </si>
-  <si>
-    <t>13_mingjiaodidao</t>
-  </si>
-  <si>
-    <t>14_gaochangmigong</t>
-  </si>
-  <si>
-    <t>41_shandong</t>
-  </si>
-  <si>
-    <t>神秘山洞</t>
-  </si>
-  <si>
-    <t>65_shandong</t>
-  </si>
-  <si>
-    <t>唐诗山洞</t>
-  </si>
-  <si>
-    <t>66_shandong</t>
-  </si>
-  <si>
-    <t>冰蚕山洞</t>
-  </si>
-  <si>
-    <t>67_shandong</t>
-  </si>
-  <si>
-    <t>79_shandong</t>
-  </si>
-  <si>
-    <t>鸳鸯山洞</t>
-  </si>
-  <si>
-    <t>82_meizhuangdilao</t>
   </si>
   <si>
     <r>
@@ -599,6 +281,318 @@
     </r>
   </si>
   <si>
+    <t>08_dalunsi</t>
+  </si>
+  <si>
+    <t>大伦寺</t>
+  </si>
+  <si>
+    <t>15_shamofeixu</t>
+  </si>
+  <si>
+    <t>沙漠废墟</t>
+  </si>
+  <si>
+    <t>09_chengkunju</t>
+  </si>
+  <si>
+    <t>成昆居</t>
+  </si>
+  <si>
+    <t>62_pomiao</t>
+  </si>
+  <si>
+    <t>破庙</t>
+  </si>
+  <si>
+    <t>03_youjiankezhan</t>
+  </si>
+  <si>
+    <t>有间客栈</t>
+  </si>
+  <si>
+    <t>06_beichouju</t>
+  </si>
+  <si>
+    <t>北丑居</t>
+  </si>
+  <si>
+    <t>72_binghuodao</t>
+  </si>
+  <si>
+    <t>冰火岛</t>
+  </si>
+  <si>
+    <t>71_shenlongjiao</t>
+  </si>
+  <si>
+    <t>神龙教</t>
+  </si>
+  <si>
+    <t>73_lingshedao</t>
+  </si>
+  <si>
+    <t>灵蛇岛</t>
+  </si>
+  <si>
+    <t>78_bonidao</t>
+  </si>
+  <si>
+    <t>渤泥岛</t>
+  </si>
+  <si>
+    <t>75_taohuadao</t>
+  </si>
+  <si>
+    <t>桃花岛</t>
+  </si>
+  <si>
+    <t>77_wanedao</t>
+  </si>
+  <si>
+    <t>万鳄岛</t>
+  </si>
+  <si>
+    <t>76_pilitang</t>
+  </si>
+  <si>
+    <t>霹雳堂</t>
+  </si>
+  <si>
+    <t>74_xiakedao</t>
+  </si>
+  <si>
+    <t>侠客岛</t>
+  </si>
+  <si>
+    <t>29_taishanpai</t>
+  </si>
+  <si>
+    <t>泰山派</t>
+  </si>
+  <si>
+    <t>30_pingyizhiju</t>
+  </si>
+  <si>
+    <t>平一指居</t>
+  </si>
+  <si>
+    <t>24_miaorenfengju</t>
+  </si>
+  <si>
+    <t>苗人凤居</t>
+  </si>
+  <si>
+    <t>32_haibianxiaowu</t>
+  </si>
+  <si>
+    <t>海边小屋</t>
+  </si>
+  <si>
+    <t>44_hudiegu</t>
+  </si>
+  <si>
+    <t>蝴蝶谷</t>
+  </si>
+  <si>
+    <t>51_gaibang</t>
+  </si>
+  <si>
+    <t>丐帮</t>
+  </si>
+  <si>
+    <t>40_yuelaikezhan</t>
+  </si>
+  <si>
+    <t>悦来客栈</t>
+  </si>
+  <si>
+    <t>28_shaolinsi</t>
+  </si>
+  <si>
+    <t>少林寺</t>
+  </si>
+  <si>
+    <t>27_songshanpai</t>
+  </si>
+  <si>
+    <t>嵩山派</t>
+  </si>
+  <si>
+    <t>43_wudangpai</t>
+  </si>
+  <si>
+    <t>武当派</t>
+  </si>
+  <si>
+    <t>36_qingchengpai</t>
+  </si>
+  <si>
+    <t>青城派</t>
+  </si>
+  <si>
+    <t>38_motianya</t>
+  </si>
+  <si>
+    <t>摩天崖</t>
+  </si>
+  <si>
+    <t>34_kongtongpai</t>
+  </si>
+  <si>
+    <t>崆峒派</t>
+  </si>
+  <si>
+    <t>20_baihuagu</t>
+  </si>
+  <si>
+    <t>百花谷</t>
+  </si>
+  <si>
+    <t>22_jueqinggu</t>
+  </si>
+  <si>
+    <t>绝情谷</t>
+  </si>
+  <si>
+    <t>80_jueqinggudi</t>
+  </si>
+  <si>
+    <t>绝情谷底</t>
+  </si>
+  <si>
+    <t>46_jinsheshandong</t>
+  </si>
+  <si>
+    <t>金蛇山洞</t>
+  </si>
+  <si>
+    <t>57_huashanpai</t>
+  </si>
+  <si>
+    <t>华山派</t>
+  </si>
+  <si>
+    <t>81_siguoya</t>
+  </si>
+  <si>
+    <t>思过崖</t>
+  </si>
+  <si>
+    <t>25_wudaodahui</t>
+  </si>
+  <si>
+    <t>武道大会</t>
+  </si>
+  <si>
+    <t>31_hengshanpai</t>
+  </si>
+  <si>
+    <t>恒山派</t>
+  </si>
+  <si>
+    <t>19_chongyanggong</t>
+  </si>
+  <si>
+    <t>重阳宫</t>
+  </si>
+  <si>
+    <t>18_gumu</t>
+  </si>
+  <si>
+    <t>古墓派</t>
+  </si>
+  <si>
+    <t>26_heimuya</t>
+  </si>
+  <si>
+    <t>黑木崖</t>
+  </si>
+  <si>
+    <t>23_hongqigongju</t>
+  </si>
+  <si>
+    <t>洪七公居</t>
+  </si>
+  <si>
+    <t>53_leigushan</t>
+  </si>
+  <si>
+    <t>擂鼓山</t>
+  </si>
+  <si>
+    <t>54_xuemuhuaju</t>
+  </si>
+  <si>
+    <t>薛慕华居</t>
+  </si>
+  <si>
+    <t>39_lingxiaocheng</t>
+  </si>
+  <si>
+    <t>雪山派</t>
+  </si>
+  <si>
+    <t>02_yunheya</t>
+  </si>
+  <si>
+    <t>云鹤崖</t>
+  </si>
+  <si>
+    <t>05_shandong</t>
+  </si>
+  <si>
+    <t>闯王山洞</t>
+  </si>
+  <si>
+    <t>07_shandong</t>
+  </si>
+  <si>
+    <t>神雕山洞</t>
+  </si>
+  <si>
+    <t>10_Shandong</t>
+  </si>
+  <si>
+    <t>蜘蛛山洞</t>
+  </si>
+  <si>
+    <t>13_mingjiaodidao</t>
+  </si>
+  <si>
+    <t>14_gaochangmigong</t>
+  </si>
+  <si>
+    <t>41_shandong</t>
+  </si>
+  <si>
+    <t>神秘山洞</t>
+  </si>
+  <si>
+    <t>65_shandong</t>
+  </si>
+  <si>
+    <t>唐诗山洞</t>
+  </si>
+  <si>
+    <t>66_shandong</t>
+  </si>
+  <si>
+    <t>冰蚕山洞</t>
+  </si>
+  <si>
+    <t>67_shandong</t>
+  </si>
+  <si>
+    <t>79_shandong</t>
+  </si>
+  <si>
+    <t>鸳鸯山洞</t>
+  </si>
+  <si>
+    <t>82_meizhuangdilao</t>
+  </si>
+  <si>
     <t>83_shengtang</t>
   </si>
 </sst>
@@ -607,12 +601,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -627,14 +621,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,6 +641,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -656,7 +656,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,40 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,18 +693,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,6 +724,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -756,30 +771,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -802,6 +802,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -814,25 +880,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,37 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,97 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,17 +1020,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,6 +1079,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1067,41 +1102,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1110,10 +1110,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1122,7 +1122,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,7 +1131,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1149,115 +1149,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1283,7 +1283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="14" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,9 +1689,9 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2020,7 +2020,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -2033,30 +2033,27 @@
       <c r="D23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="2">
         <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
@@ -2064,10 +2061,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="2">
         <v>16</v>
@@ -2075,10 +2072,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -2086,10 +2083,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="2">
         <v>17</v>
@@ -2097,10 +2094,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -2108,10 +2105,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="2">
         <v>11</v>
@@ -2119,10 +2116,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="2">
         <v>68</v>
@@ -2130,24 +2127,24 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
@@ -2155,10 +2152,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="C34" s="5">
         <v>15</v>
@@ -2166,10 +2163,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="C35" s="2">
         <v>9</v>
@@ -2177,10 +2174,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="C36" s="2">
         <v>62</v>
@@ -2188,10 +2185,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -2199,94 +2196,91 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="C39" s="2">
         <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="2">
         <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="2">
         <v>73</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="2">
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C43" s="2">
         <v>75</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C44" s="2">
         <v>77</v>
@@ -2294,10 +2288,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C45" s="2">
         <v>76</v>
@@ -2305,10 +2299,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C46" s="5">
         <v>74</v>
@@ -2316,10 +2310,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C47" s="2">
         <v>29</v>
@@ -2327,10 +2321,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -2338,10 +2332,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C49" s="2">
         <v>24</v>
@@ -2349,10 +2343,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C50" s="2">
         <v>32</v>
@@ -2360,10 +2354,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C51" s="2">
         <v>44</v>
@@ -2371,10 +2365,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
@@ -2382,10 +2376,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -2393,10 +2387,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C54" s="2">
         <v>28</v>
@@ -2404,10 +2398,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C55" s="2">
         <v>27</v>
@@ -2415,10 +2409,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C56" s="2">
         <v>43</v>
@@ -2426,10 +2420,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C57" s="2">
         <v>36</v>
@@ -2437,10 +2431,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C58" s="2">
         <v>38</v>
@@ -2448,10 +2442,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="C59" s="2">
         <v>34</v>
@@ -2459,10 +2453,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C60" s="2">
         <v>20</v>
@@ -2470,10 +2464,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C61" s="2">
         <v>22</v>
@@ -2481,35 +2475,32 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C62" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C63" s="2">
         <v>46</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C64" s="2">
         <v>57</v>
@@ -2517,10 +2508,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C65" s="2">
         <v>81</v>
@@ -2528,10 +2519,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C66" s="2">
         <v>25</v>
@@ -2539,10 +2530,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C67" s="2">
         <v>31</v>
@@ -2550,35 +2541,32 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C68" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="C70" s="2">
         <v>26</v>
@@ -2586,10 +2574,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C71" s="2">
         <v>23</v>
@@ -2597,10 +2585,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C72" s="2">
         <v>53</v>
@@ -2608,10 +2596,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C73" s="2">
         <v>54</v>
@@ -2619,10 +2607,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C74" s="2">
         <v>39</v>
@@ -2630,158 +2618,134 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="C75" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:3">
       <c r="A76" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="C76" s="7">
         <v>5</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="C77" s="7">
         <v>7</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C78" s="7">
         <v>10</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79" s="8">
         <v>13</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C80" s="8">
         <v>14</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C81" s="7">
         <v>41</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C82" s="7">
         <v>65</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C83" s="7">
         <v>66</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="7">
         <v>67</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C85" s="7">
         <v>79</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>32</v>
@@ -2790,21 +2754,21 @@
         <v>82</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="8">
         <v>83</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
